--- a/upload/orders/import_order.xlsx
+++ b/upload/orders/import_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUTOUCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07111E8-E080-49FC-B2FF-49B192CAA444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6EC4D2-9641-494E-B5E5-8393281075EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9A3A2BCA-1E5F-4A53-B8C9-2404C34530F7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>LAZADA</t>
   </si>
@@ -50,9 +50,6 @@
     <t>นาวัง/ Na Wang</t>
   </si>
   <si>
-    <t>LA308752347578650</t>
-  </si>
-  <si>
     <t>COD</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>WP-1509-AA-M</t>
+  </si>
+  <si>
+    <t>LA308752347578652</t>
+  </si>
+  <si>
+    <t>LA308752347578651</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,68 +543,69 @@
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -624,19 +628,19 @@
         <v>660883083458</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>44009.346504629626</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -646,6 +650,9 @@
       </c>
       <c r="P2">
         <v>59</v>
+      </c>
+      <c r="Q2">
+        <v>60</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -671,19 +678,19 @@
         <v>660883083458</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>44009.346504629626</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -693,6 +700,9 @@
       </c>
       <c r="P3">
         <v>59</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -718,19 +728,19 @@
         <v>660883083458</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>44009.346504629626</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -740,6 +750,9 @@
       </c>
       <c r="P4">
         <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
       </c>
       <c r="S4">
         <v>1</v>
